--- a/statistics/HistoricalDistanceData/historical_distance/Q3591470-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q3591470-en.xlsx
@@ -31,31 +31,37 @@
     <t>uri</t>
   </si>
   <si>
+    <t>The 1985 Barrie Tornado Revisited</t>
+  </si>
+  <si>
+    <t>30 years later: What we’ve learned since the Barrie tornado</t>
+  </si>
+  <si>
     <t>'The sky was green': Barrie looks back on fatal tornado 30 years later</t>
   </si>
   <si>
     <t>It’s been 31 years since deadly tornadoes hit central Ontario</t>
   </si>
   <si>
-    <t>30 years later: What we’ve learned since the Barrie tornado</t>
-  </si>
-  <si>
-    <t>The 1985 Barrie Tornado Revisited</t>
+    <t>May 31, 1985 Tornado Outbreak: 35th Anniversary</t>
+  </si>
+  <si>
+    <t>Northeastern Tornadoes</t>
   </si>
   <si>
     <t>May 31, 1985 outbreak: How a 'lost' 14th tornado was found</t>
   </si>
   <si>
-    <t>Northeastern Tornadoes</t>
-  </si>
-  <si>
-    <t>May 31, 1985 Tornado Outbreak: 35th Anniversary</t>
+    <t>The United States - Canadian Outbreak</t>
   </si>
   <si>
     <t>Deadly Skies: Canada's Most Destructive Tornadoes</t>
   </si>
   <si>
-    <t>The United States - Canadian Outbreak</t>
+    <t>2010-05-31T14:28:48UTC</t>
+  </si>
+  <si>
+    <t>2015-05-30T08:00:00UTC</t>
   </si>
   <si>
     <t>2015-05-22T19:29:00UTC</t>
@@ -64,12 +70,6 @@
     <t>2016-05-31T13:45:00UTC</t>
   </si>
   <si>
-    <t>2015-05-30T08:00:00UTC</t>
-  </si>
-  <si>
-    <t>2010-05-31T14:28:48UTC</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
@@ -82,31 +82,31 @@
     <t>day_31_beyond</t>
   </si>
   <si>
+    <t>https://albarrieprocesscontrol.wordpress.com/2010/05/31/1985-barrie-tornado/</t>
+  </si>
+  <si>
+    <t>http://globalnews.ca/news/2015616/30-years-later-what-weve-learned-since-the-barrie-tornado/30</t>
+  </si>
+  <si>
     <t>http://toronto.ctvnews.ca/mobile/the-sky-was-green-barrie-looks-back-on-fatal-tornado-30-years-later-1.2387150</t>
   </si>
   <si>
     <t>http://barrie.ctvnews.ca/mobile/it-s-been-31-years-since-deadly-tornadoes-hit-central-ontario-1.2925014</t>
   </si>
   <si>
-    <t>http://globalnews.ca/news/2015616/30-years-later-what-weve-learned-since-the-barrie-tornado/30</t>
-  </si>
-  <si>
-    <t>https://albarrieprocesscontrol.wordpress.com/2010/05/31/1985-barrie-tornado/</t>
+    <t>https://www.weather.gov/ctp/TornadoOutbreak_May311985</t>
+  </si>
+  <si>
+    <t>http://ohsweb.ohiohistory.org/swio/pages/content/1985_tornadoes.htm</t>
   </si>
   <si>
     <t>http://www.theweathernetwork.com/news/articles/black-friday-1985-how-years-later-a-lost-tornado-was-found/51763/</t>
   </si>
   <si>
-    <t>http://ohsweb.ohiohistory.org/swio/pages/content/1985_tornadoes.htm</t>
-  </si>
-  <si>
-    <t>https://www.weather.gov/ctp/TornadoOutbreak_May311985</t>
+    <t>http://www.tornadohistoryproject.com/outbreaks/the-united-states-canadian-outbreak-1985</t>
   </si>
   <si>
     <t>http://archives.cbc.ca/environment/extreme_weather/topics/1713-11757/</t>
-  </si>
-  <si>
-    <t>http://www.tornadohistoryproject.com/outbreaks/the-united-states-canadian-outbreak-1985</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>10948</v>
+        <v>9131</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -525,7 +525,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>11323</v>
+        <v>10956</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -542,7 +542,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>10956</v>
+        <v>10948</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -559,7 +559,7 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>9131</v>
+        <v>11323</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -641,7 +641,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
